--- a/doc/FSMDiagrams/VM Table States.xlsx
+++ b/doc/FSMDiagrams/VM Table States.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Timestamp</t>
   </si>
@@ -32,9 +32,15 @@
     <t>cashIncrement</t>
   </si>
   <si>
+    <t>nonCashIncrement</t>
+  </si>
+  <si>
     <t>cancel</t>
   </si>
   <si>
+    <t>valid</t>
+  </si>
+  <si>
     <t>invalid</t>
   </si>
   <si>
@@ -68,17 +74,17 @@
     <t>Confirmation</t>
   </si>
   <si>
+    <t>Deploy</t>
+  </si>
+  <si>
     <t>Next States</t>
-  </si>
-  <si>
-    <t>Deploy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -94,6 +100,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="8.0"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -101,7 +110,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +131,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
@@ -133,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -144,39 +159,66 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -251,205 +293,261 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="G5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="E6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="H6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="J8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:G1">
